--- a/biology/Médecine/Enzo_Jannacci/Enzo_Jannacci.xlsx
+++ b/biology/Médecine/Enzo_Jannacci/Enzo_Jannacci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enzo Jannacci, né à Milan le 3 juin 1935 et mort le 29 mars 2013 dans la même ville, est un auteur-compositeur-interprète, pianiste, acteur et humoriste italien. Il est une figure renommée du monde la chanson et est considéré comme le précurseur du rock italien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enzo Jannacci, né à Milan le 3 juin 1935 et mort le 29 mars 2013 dans la même ville, est un auteur-compositeur-interprète, pianiste, acteur et humoriste italien. Il est une figure renommée du monde la chanson et est considéré comme le précurseur du rock italien.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études scientifiques et un doctorat en médecine, le jeune Enzo part en Afrique du Sud, puis aux États-Unis afin de se spécialiser dans la chirurgie cardiaque, profession qu'il exerce toute sa vie[2]. Il est amené à travailler au sein de l'équipe du célèbre chirurgien Christiaan Barnard[3].
-Il commence sa carrière musicale en 1956. Ayant étudié le piano au conservatoire, il intègre les groupes « Rocky Mountains » et « Rock Boys », où il découvre le Rock n' Roll. C'est avec Giorgio Gaber, leader des "Rocky Mountains" et partenaire musical durant près de 40 ans, qu'il forme le duo « I due corsari » et réalise ses premiers enregistrements[4]. En 1958, il accompagne comme pianiste de jazz de grands noms tels que Stan Getz, Gerry Mulligan, Chet Baker, Bud Powell et Franco Cerri, en compagnie desquels il enregistre plusieurs albums.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études scientifiques et un doctorat en médecine, le jeune Enzo part en Afrique du Sud, puis aux États-Unis afin de se spécialiser dans la chirurgie cardiaque, profession qu'il exerce toute sa vie. Il est amené à travailler au sein de l'équipe du célèbre chirurgien Christiaan Barnard.
+Il commence sa carrière musicale en 1956. Ayant étudié le piano au conservatoire, il intègre les groupes « Rocky Mountains » et « Rock Boys », où il découvre le Rock n' Roll. C'est avec Giorgio Gaber, leader des "Rocky Mountains" et partenaire musical durant près de 40 ans, qu'il forme le duo « I due corsari » et réalise ses premiers enregistrements. En 1958, il accompagne comme pianiste de jazz de grands noms tels que Stan Getz, Gerry Mulligan, Chet Baker, Bud Powell et Franco Cerri, en compagnie desquels il enregistre plusieurs albums.
 Il entame une carrière solo dans le courant des années 1960. Chantant souvent en dialecte, il est considéré comme l'une des figures du rock italien. Affectionnant le monde du cabaret, ses textes se caractérisent par le non-sens et le surréalisme et font le succès de tubes comme « El portava i scarp del tennis », « L’Armando », « Son s’ciopàa », ou « Vengo anch’io. No, tu no ».
-Au fil des ans, Enzo Jannacci se lance dans la composition de musiques de films et est amené à travailler avec Mario Monicelli, Marco Ferreri, Lina Wertmuller[5]. Sa carrière compte quelques apparitions au cinéma. Son œuvre comptabilise une trentaine d'albums[1].
-Enzo Jannacci meurt le 29 mars 2013 dans sa ville natale, des suites d'un cancer[6].
+Au fil des ans, Enzo Jannacci se lance dans la composition de musiques de films et est amené à travailler avec Mario Monicelli, Marco Ferreri, Lina Wertmuller. Sa carrière compte quelques apparitions au cinéma. Son œuvre comptabilise une trentaine d'albums.
+Enzo Jannacci meurt le 29 mars 2013 dans sa ville natale, des suites d'un cancer.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-1964 - La Milano di Enzo Jannacci (it) (Jolly (en) LPJ 5037)
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1964 - La Milano di Enzo Jannacci (it) (Jolly (en) LPJ 5037)
 1965 - Enzo Jannacci in teatro (it) (live Jolly LPJ 5043)
 1966 - Sei minuti all'alba (it) (Jolly LPJ 5071)
 1968 - Vengo anch'io. No, tu no (it) (ARC ALPS 11007)
@@ -576,13 +595,81 @@
 2001 - Come gli aeroplani (it)
 2003 - L'uomo a metà (it)
 2005 - Milano 3.6.2005 (it) (collection)
-2006 - The Best 2006 (collection)
-Collaborations
-Mina quasi Jannacci (it) (1977, avec Mina)
+2006 - The Best 2006 (collection)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enzo_Jannacci</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enzo_Jannacci</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mina quasi Jannacci (it) (1977, avec Mina)
 Milva la rossa (1980, avec Milva)
-Banana à milanesa (2008, avec Selton (it))
-Singles
-L'Armando/La forza dell'amore ( 4 mai 1964)
+Banana à milanesa (2008, avec Selton (it))</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Enzo_Jannacci</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enzo_Jannacci</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Singles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Armando/La forza dell'amore ( 4 mai 1964)
 Sfiorisci bel fiore/Non è vero (30 avril 1965)
 Veronica/Soldato Nencini (17 mai 1965)
 Per un basin/Ninna nanna per un bambino (9 février 1966)
@@ -594,9 +681,43 @@
 El me indiriss/Quelli che… (1975)
 Linea bianca/Moviola (9 septembre 1983)
 Mi-mi-la-lan!/La bambina lupo (1984)
-Se me lo dicevi prima/Vita e bottoni (mars 1989)
-Duos
-Avec Claudio Baglioni : Canzone intelligente, E la vita la vita (in Anime in gioco (it) de Claudio Baglioni, 1997), La forza dell'amore and Vincenzina e la fabbrica
+Se me lo dicevi prima/Vita e bottoni (mars 1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enzo_Jannacci</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enzo_Jannacci</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Duos</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avec Claudio Baglioni : Canzone intelligente, E la vita la vita (in Anime in gioco (it) de Claudio Baglioni, 1997), La forza dell'amore and Vincenzina e la fabbrica
 avec Adriano Celentano : Ho visto un re
 avec Paolo Conte : Bartali
 avec Dario Fo (de 1964 à 1980, Enzo Jannacci collabore sur une quarantaine de titres de Dario Fo) : Ho visto un re
@@ -613,34 +734,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Enzo_Jannacci</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Enzo_Jannacci</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie partielle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme acteur ou compositeur
-1964 : La Vie aigre (La vita agra), de Carlo Lizzani
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme acteur ou compositeur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1964 : La Vie aigre (La vita agra), de Carlo Lizzani
 1965 : Questi pazzi, pazzi italiani, de Tullio Piacentini
 1967 : Quando dico che ti amo, de Giorgio Bianchi
 1971 : Drôles de couples (Le coppie), Épisode Il frigorifero, de Mario Monicelli
